--- a/data/waterqualitydataset.xlsx
+++ b/data/waterqualitydataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINGgS\Documents\Some homeworks\IU\Year4\Thesis\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINGgS\Documents\Webproject\shrimp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DD5E37-E806-489C-8F34-791752D0021A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494CF92E-7CDF-42A5-A1B6-2E6867B1C513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results_MADE" sheetId="1" r:id="rId1"/>
@@ -382,19 +382,19 @@
   <dimension ref="A1:J296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="1" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -459,7 +459,7 @@
       </c>
       <c r="J2">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -789,7 +789,7 @@
       </c>
       <c r="J12">
         <f t="shared" ref="J12:J21" ca="1" si="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -822,7 +822,7 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -921,7 +921,7 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="J52">
         <f t="shared" ref="J52:J61" ca="1" si="5">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="J62">
         <f t="shared" ref="J62:J71" ca="1" si="6">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="J82">
         <f t="shared" ref="J82:J91" ca="1" si="8">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="J86">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="J92">
         <f t="shared" ref="J92:J100" ca="1" si="9">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="J101">
         <f t="shared" ref="J101:J115" ca="1" si="10">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="J103">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="J104">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="J105">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="J107">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="J112">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="J113">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="J115">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="J116">
         <f t="shared" ref="J116:J125" ca="1" si="11">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="J118">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="J119">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="J120">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="J122">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="J125">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="J126">
         <f t="shared" ref="J126:J135" ca="1" si="12">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="J129">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="J130">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="J131">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="J136">
         <f t="shared" ref="J136:J145" ca="1" si="13">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="J137">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="J138">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="J141">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="J144">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="J148">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="J149">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="J156">
         <f t="shared" ref="J156:J167" ca="1" si="15">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="J166">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="J167">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="J168">
         <f t="shared" ref="J168:J180" ca="1" si="16">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="J171">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="J172">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="J174">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="J176">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -6300,7 +6300,7 @@
       </c>
       <c r="J179">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="J183">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="J185">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="J187">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="J190">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -6729,7 +6729,7 @@
       </c>
       <c r="J192">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="J193">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="J194">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="J196">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="J197">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="J198">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="J199">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="J200">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="J201">
         <f t="shared" ref="J201:J210" ca="1" si="19">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -7158,7 +7158,7 @@
       </c>
       <c r="J205">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="J207">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -7290,7 +7290,7 @@
       </c>
       <c r="J209">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="J211">
         <f t="shared" ref="J211:J220" ca="1" si="20">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="J214">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="J215">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="J216">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="J218">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="J220">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="J221">
         <f t="shared" ref="J221:J230" ca="1" si="21">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="J223">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -7818,7 +7818,7 @@
       </c>
       <c r="J225">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="J226">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="J227">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="J228">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -7950,7 +7950,7 @@
       </c>
       <c r="J229">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="J230">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -8082,7 +8082,7 @@
       </c>
       <c r="J233">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="J236">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="J239">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="J244">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -8478,7 +8478,7 @@
       </c>
       <c r="J245">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -8511,7 +8511,7 @@
       </c>
       <c r="J246">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="J247">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="J249">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="J251">
         <f t="shared" ref="J251:J260" ca="1" si="24">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="J252">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -8742,7 +8742,7 @@
       </c>
       <c r="J253">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="J254">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="J256">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="J257">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="J262">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -9138,7 +9138,7 @@
       </c>
       <c r="J265">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="J270">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -9402,7 +9402,7 @@
       </c>
       <c r="J273">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="J274">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="J278">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -9633,7 +9633,7 @@
       </c>
       <c r="J280">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -9666,7 +9666,7 @@
       </c>
       <c r="J281">
         <f t="shared" ref="J281:J290" ca="1" si="27">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="J283">
         <f t="shared" ca="1" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="J284">
         <f t="shared" ca="1" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -9798,7 +9798,7 @@
       </c>
       <c r="J285">
         <f t="shared" ca="1" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="J287">
         <f t="shared" ca="1" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:10">
@@ -9897,7 +9897,7 @@
       </c>
       <c r="J288">
         <f t="shared" ca="1" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -9963,7 +9963,7 @@
       </c>
       <c r="J290">
         <f t="shared" ca="1" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:10">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="J291">
         <f t="shared" ref="J291:J296" ca="1" si="28">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:10">
@@ -10029,7 +10029,7 @@
       </c>
       <c r="J292">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -10095,7 +10095,7 @@
       </c>
       <c r="J294">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -10128,7 +10128,7 @@
       </c>
       <c r="J295">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -10161,7 +10161,7 @@
       </c>
       <c r="J296">
         <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
